--- a/Docs/Microcontroller_Interfacing_BOM.xlsx
+++ b/Docs/Microcontroller_Interfacing_BOM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/49b5f14d757e97a6/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\simon\EEE3088F\EEE3088F-Group-3\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="8_{E57B9AC0-7FE9-483E-90F9-4731E48F54A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F15E2F9-A954-4B80-981B-F3A21A3E9D12}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA43DE5-E8A7-4267-9679-0C1DCA3189A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sensor Module" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>MANUFACTURER PART NO.</t>
   </si>
@@ -74,9 +74,6 @@
     <t>U2</t>
   </si>
   <si>
-    <t>"Each extended component that is placed by JLCPCB adds an extra 3$"</t>
-  </si>
-  <si>
     <t>One Board</t>
   </si>
   <si>
@@ -95,9 +92,6 @@
     <t>Micro-controller Interfacing Module</t>
   </si>
   <si>
-    <t xml:space="preserve"> $12.00 </t>
-  </si>
-  <si>
     <t>GRAND TOTAL</t>
   </si>
   <si>
@@ -161,21 +155,9 @@
     <t>Manufacturing</t>
   </si>
   <si>
-    <t>$24.00</t>
-  </si>
-  <si>
     <t>MC INTERFACING MODULE TOTALS</t>
   </si>
   <si>
-    <t xml:space="preserve"> $4.80</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $24.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$19.63 </t>
-  </si>
-  <si>
     <t>5x Pin Male Connector</t>
   </si>
   <si>
@@ -183,14 +165,18 @@
   </si>
   <si>
     <t>8x Socket Female Connector</t>
+  </si>
+  <si>
+    <t>"Each extended component adds an extra 3$"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="6" formatCode="&quot;R&quot;#,##0;[Red]\-&quot;R&quot;#,##0"/>
+    <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
   <fonts count="23" x14ac:knownFonts="1">
     <font>
@@ -561,7 +547,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -741,6 +727,28 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -790,7 +798,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -812,7 +820,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1"/>
@@ -821,14 +828,27 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="43" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="43" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -892,10 +912,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1197,24 +1213,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" customWidth="1"/>
-    <col min="4" max="4" width="19.109375" customWidth="1"/>
-    <col min="7" max="7" width="20.109375" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="11.109375" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="17.44140625" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1251,18 +1267,18 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
-        <v>26</v>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>25</v>
+      <c r="C2" s="11" t="s">
+        <v>23</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E2" s="3">
         <v>1</v>
@@ -1271,7 +1287,7 @@
         <v>5</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H2" s="3">
         <v>0.03</v>
@@ -1286,15 +1302,15 @@
         <v>3.15</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="19" t="s">
-        <v>28</v>
+    <row r="3" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>26</v>
       </c>
       <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>29</v>
+      <c r="C3" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>11</v>
@@ -1306,7 +1322,7 @@
         <v>5</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H3" s="3">
         <v>0.43</v>
@@ -1321,15 +1337,15 @@
         <v>5.15</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
-        <v>22</v>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>23</v>
+      <c r="C4" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>12</v>
@@ -1341,7 +1357,7 @@
         <v>5</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H4" s="3">
         <v>0.47</v>
@@ -1356,18 +1372,18 @@
         <v>5.35</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
-        <v>39</v>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>37</v>
       </c>
       <c r="B5" s="3">
         <v>1</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>40</v>
+      <c r="C5" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E5" s="3">
         <v>2</v>
@@ -1376,7 +1392,7 @@
         <v>10</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H5" s="3">
         <v>7.0000000000000007E-2</v>
@@ -1391,18 +1407,18 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
-        <v>37</v>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>35</v>
       </c>
       <c r="B6" s="3">
         <v>1</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>38</v>
+      <c r="C6" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E6" s="3">
         <v>3</v>
@@ -1411,7 +1427,7 @@
         <v>15</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H6" s="3">
         <v>0.04</v>
@@ -1426,150 +1442,126 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="18">
         <v>1</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="6" t="s">
+      <c r="C7" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="3">
+      <c r="D7" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="18">
         <v>3</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="18">
         <v>15</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H7" s="3">
+      <c r="G7" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="18">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="18">
         <v>0.21</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="18">
         <v>1.05</v>
       </c>
       <c r="K7" s="3">
         <v>3.05</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="K11" s="2" t="s">
+    <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D9" s="21"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="25"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="17"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="B14" s="16">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="B15" s="16">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="16" t="s">
+      <c r="B17" s="25"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="17"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+      <c r="B18" s="16">
+        <v>19.63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+      <c r="B19" s="16">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
+      <c r="B20" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="3"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="9">
+      <c r="B22" s="17">
         <f>SUM(B18:B21)</f>
-        <v>0</v>
+        <v>55.629999999999995</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Microcontroller_Interfacing_BOM.xlsx
+++ b/Docs/Microcontroller_Interfacing_BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\simon\EEE3088F\EEE3088F-Group-3\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA43DE5-E8A7-4267-9679-0C1DCA3189A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B04F97-F76A-4A33-ACED-7710CDBF1D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1214,7 +1214,7 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1536,7 +1536,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="16">
-        <v>24</v>
+        <v>13.83</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -1544,7 +1544,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="16">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="B22" s="17">
         <f>SUM(B18:B21)</f>
-        <v>55.629999999999995</v>
+        <v>69.460000000000008</v>
       </c>
     </row>
   </sheetData>
